--- a/inputs/bip/retail.xlsx
+++ b/inputs/bip/retail.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Cerrados" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abiertos!$A$10:$J$221</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cerrados!$A$10:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abiertos!$A$10:$J$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cerrados!$A$10:$K$49</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -3440,7 +3440,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3501,6 +3501,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Millares 2" xfId="1"/>
@@ -3513,7 +3516,14 @@
     <cellStyle name="Normal 4 2" xfId="7"/>
     <cellStyle name="Normal_Inicios Ayer" xfId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3900,7 +3910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J221"/>
+  <dimension ref="A2:J222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3909,9 +3919,9 @@
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="9" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="2"/>
     <col min="9" max="9" width="16.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -3952,7 +3962,7 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -9042,368 +9052,368 @@
     </row>
     <row r="169" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
-        <v>322</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>758</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>6</v>
+        <v>320</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="E169" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="G169" s="16">
-        <v>349792</v>
+        <v>337679</v>
       </c>
       <c r="H169" s="16">
-        <v>6300250</v>
+        <v>6307444</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="J169" s="16" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>995</v>
+        <v>758</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F170" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G170" s="16">
-        <v>352340</v>
+        <v>349792</v>
       </c>
       <c r="H170" s="16">
-        <v>6289762</v>
+        <v>6300250</v>
       </c>
       <c r="I170" s="16" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J170" s="16" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>561</v>
+        <v>814</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F171" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G171" s="16">
-        <v>354022</v>
+        <v>352340</v>
       </c>
       <c r="H171" s="16">
-        <v>6280111</v>
+        <v>6289762</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>400</v>
+        <v>944</v>
       </c>
       <c r="J171" s="16" t="s">
-        <v>401</v>
+        <v>945</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>489</v>
+        <v>996</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="F172" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G172" s="16">
-        <v>350776</v>
+        <v>354022</v>
       </c>
       <c r="H172" s="16">
-        <v>6295159</v>
+        <v>6280111</v>
       </c>
       <c r="I172" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J172" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="F173" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G173" s="16">
-        <v>351984</v>
+        <v>350776</v>
       </c>
       <c r="H173" s="16">
-        <v>6300467</v>
+        <v>6295159</v>
       </c>
       <c r="I173" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J173" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>128</v>
+        <v>463</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F174" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G174" s="16">
-        <v>352961</v>
+        <v>351984</v>
       </c>
       <c r="H174" s="16">
-        <v>6303690</v>
+        <v>6300467</v>
       </c>
       <c r="I174" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J174" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>759</v>
+        <v>128</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>815</v>
+        <v>564</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F175" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G175" s="16">
-        <v>352777</v>
+        <v>352961</v>
       </c>
       <c r="H175" s="16">
-        <v>6293879</v>
+        <v>6303690</v>
       </c>
       <c r="I175" s="16" t="s">
-        <v>946</v>
+        <v>406</v>
       </c>
       <c r="J175" s="16" t="s">
-        <v>947</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>997</v>
+        <v>759</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F176" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G176" s="16">
-        <v>338492</v>
+        <v>352777</v>
       </c>
       <c r="H176" s="16">
-        <v>6292828</v>
+        <v>6293879</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="J176" s="16" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>490</v>
+        <v>997</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>565</v>
+        <v>816</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F177" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G177" s="16">
-        <v>359947</v>
+        <v>338492</v>
       </c>
       <c r="H177" s="16">
-        <v>6307838</v>
+        <v>6292828</v>
       </c>
       <c r="I177" s="16" t="s">
-        <v>408</v>
+        <v>948</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>409</v>
+        <v>949</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>998</v>
+        <v>490</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>818</v>
+        <v>565</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F178" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G178" s="16">
-        <v>345422</v>
+        <v>359947</v>
       </c>
       <c r="H178" s="16">
-        <v>6290679</v>
+        <v>6307838</v>
       </c>
       <c r="I178" s="16" t="s">
-        <v>952</v>
+        <v>408</v>
       </c>
       <c r="J178" s="16" t="s">
-        <v>953</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>491</v>
+        <v>998</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>566</v>
+        <v>818</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F179" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G179" s="16">
-        <v>345246</v>
+        <v>345422</v>
       </c>
       <c r="H179" s="16">
-        <v>6297742</v>
+        <v>6290679</v>
       </c>
       <c r="I179" s="16" t="s">
-        <v>410</v>
+        <v>952</v>
       </c>
       <c r="J179" s="16" t="s">
-        <v>411</v>
+        <v>953</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1022</v>
+        <v>491</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>15</v>
@@ -9412,30 +9422,30 @@
         <v>838</v>
       </c>
       <c r="G180" s="16">
-        <v>344491</v>
+        <v>345246</v>
       </c>
       <c r="H180" s="16">
-        <v>6297706</v>
+        <v>6297742</v>
       </c>
       <c r="I180" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J180" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>999</v>
+        <v>1022</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>15</v>
@@ -9444,222 +9454,222 @@
         <v>838</v>
       </c>
       <c r="G181" s="16">
-        <v>347350</v>
+        <v>344491</v>
       </c>
       <c r="H181" s="16">
-        <v>6298092</v>
+        <v>6297706</v>
       </c>
       <c r="I181" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J181" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="F182" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G182" s="16">
-        <v>325752</v>
+        <v>347350</v>
       </c>
       <c r="H182" s="16">
-        <v>6279432</v>
+        <v>6298092</v>
       </c>
       <c r="I182" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J182" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>492</v>
+        <v>1000</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>69</v>
+        <v>569</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G183" s="16">
-        <v>346894</v>
+        <v>325752</v>
       </c>
       <c r="H183" s="16">
-        <v>6299075</v>
+        <v>6279432</v>
       </c>
       <c r="I183" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J183" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>570</v>
+        <v>69</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="G184" s="16">
-        <v>351400</v>
+        <v>346894</v>
       </c>
       <c r="H184" s="16">
-        <v>6298250</v>
+        <v>6299075</v>
       </c>
       <c r="I184" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J184" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>1023</v>
+        <v>493</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>177</v>
+        <v>570</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="F185" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G185" s="16">
-        <v>347932</v>
+        <v>351400</v>
       </c>
       <c r="H185" s="16">
-        <v>6298158</v>
+        <v>6298250</v>
       </c>
       <c r="I185" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J185" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>760</v>
+        <v>1023</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>823</v>
+        <v>177</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F186" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G186" s="16">
-        <v>341615</v>
+        <v>347932</v>
       </c>
       <c r="H186" s="16">
-        <v>6296021</v>
+        <v>6298158</v>
       </c>
       <c r="I186" s="16" t="s">
-        <v>960</v>
+        <v>422</v>
       </c>
       <c r="J186" s="16" t="s">
-        <v>961</v>
+        <v>423</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>1001</v>
+        <v>760</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>644</v>
+        <v>823</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F187" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G187" s="16">
-        <v>339158</v>
+        <v>341615</v>
       </c>
       <c r="H187" s="16">
-        <v>6294289</v>
+        <v>6296021</v>
       </c>
       <c r="I187" s="16" t="s">
-        <v>645</v>
+        <v>960</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>646</v>
+        <v>961</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>9</v>
@@ -9668,30 +9678,30 @@
         <v>838</v>
       </c>
       <c r="G188" s="16">
-        <v>337382</v>
+        <v>339158</v>
       </c>
       <c r="H188" s="16">
-        <v>6295254</v>
+        <v>6294289</v>
       </c>
       <c r="I188" s="16" t="s">
-        <v>424</v>
+        <v>645</v>
       </c>
       <c r="J188" s="16" t="s">
-        <v>425</v>
+        <v>646</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>70</v>
+        <v>571</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>9</v>
@@ -9700,446 +9710,446 @@
         <v>838</v>
       </c>
       <c r="G189" s="16">
-        <v>335791</v>
+        <v>337382</v>
       </c>
       <c r="H189" s="16">
-        <v>6286939</v>
+        <v>6295254</v>
       </c>
       <c r="I189" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J189" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F190" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G190" s="16">
-        <v>339922</v>
+        <v>335791</v>
       </c>
       <c r="H190" s="16">
-        <v>6307655</v>
+        <v>6286939</v>
       </c>
       <c r="I190" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J190" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>655</v>
+        <v>1024</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>825</v>
+        <v>178</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F191" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G191" s="16">
-        <v>344231</v>
+        <v>339922</v>
       </c>
       <c r="H191" s="16">
-        <v>6299213</v>
+        <v>6307655</v>
       </c>
       <c r="I191" s="16" t="s">
-        <v>964</v>
+        <v>428</v>
       </c>
       <c r="J191" s="16" t="s">
-        <v>965</v>
+        <v>429</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>494</v>
+        <v>655</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>572</v>
+        <v>825</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F192" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G192" s="16">
-        <v>333646</v>
+        <v>344231</v>
       </c>
       <c r="H192" s="16">
-        <v>6289125</v>
+        <v>6299213</v>
       </c>
       <c r="I192" s="16" t="s">
-        <v>430</v>
+        <v>964</v>
       </c>
       <c r="J192" s="16" t="s">
-        <v>431</v>
+        <v>965</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1004</v>
+        <v>494</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>663</v>
+        <v>572</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F193" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G193" s="16">
-        <v>338190</v>
+        <v>333646</v>
       </c>
       <c r="H193" s="16">
-        <v>6308444</v>
+        <v>6289125</v>
       </c>
       <c r="I193" s="16" t="s">
-        <v>687</v>
+        <v>430</v>
       </c>
       <c r="J193" s="16" t="s">
-        <v>688</v>
+        <v>431</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F194" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G194" s="16">
-        <v>334174</v>
+        <v>338190</v>
       </c>
       <c r="H194" s="16">
-        <v>6287873</v>
+        <v>6308444</v>
       </c>
       <c r="I194" s="16" t="s">
-        <v>432</v>
+        <v>687</v>
       </c>
       <c r="J194" s="16" t="s">
-        <v>433</v>
+        <v>688</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>647</v>
+        <v>573</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F195" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G195" s="16">
-        <v>342564</v>
+        <v>334174</v>
       </c>
       <c r="H195" s="16">
-        <v>6300539</v>
+        <v>6287873</v>
       </c>
       <c r="I195" s="16" t="s">
-        <v>648</v>
+        <v>432</v>
       </c>
       <c r="J195" s="16" t="s">
-        <v>649</v>
+        <v>433</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>826</v>
+        <v>647</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F196" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G196" s="16">
-        <v>346378</v>
+        <v>342564</v>
       </c>
       <c r="H196" s="16">
-        <v>6299388</v>
+        <v>6300539</v>
       </c>
       <c r="I196" s="16" t="s">
-        <v>968</v>
+        <v>648</v>
       </c>
       <c r="J196" s="16" t="s">
-        <v>969</v>
+        <v>649</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>495</v>
+        <v>1006</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>574</v>
+        <v>826</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F197" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G197" s="16">
-        <v>352481</v>
+        <v>346378</v>
       </c>
       <c r="H197" s="16">
-        <v>6281606</v>
+        <v>6299388</v>
       </c>
       <c r="I197" s="16" t="s">
-        <v>434</v>
+        <v>968</v>
       </c>
       <c r="J197" s="16" t="s">
-        <v>435</v>
+        <v>969</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>658</v>
+        <v>495</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>664</v>
+        <v>574</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F198" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G198" s="16">
-        <v>346586</v>
+        <v>352481</v>
       </c>
       <c r="H198" s="16">
-        <v>6297879</v>
+        <v>6281606</v>
       </c>
       <c r="I198" s="16" t="s">
-        <v>689</v>
+        <v>434</v>
       </c>
       <c r="J198" s="16" t="s">
-        <v>690</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="F199" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G199" s="16">
-        <v>353149</v>
+        <v>346586</v>
       </c>
       <c r="H199" s="16">
-        <v>6297860</v>
+        <v>6297879</v>
       </c>
       <c r="I199" s="16" t="s">
-        <v>626</v>
+        <v>689</v>
       </c>
       <c r="J199" s="16" t="s">
-        <v>627</v>
+        <v>690</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>1026</v>
+        <v>609</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>179</v>
+        <v>616</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="F200" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G200" s="16">
-        <v>346032</v>
+        <v>353149</v>
       </c>
       <c r="H200" s="16">
-        <v>6301251</v>
+        <v>6297860</v>
       </c>
       <c r="I200" s="16" t="s">
-        <v>436</v>
+        <v>626</v>
       </c>
       <c r="J200" s="16" t="s">
-        <v>437</v>
+        <v>627</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>506</v>
+        <v>1026</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>575</v>
+        <v>179</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F201" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G201" s="16">
-        <v>351208</v>
+        <v>346032</v>
       </c>
       <c r="H201" s="16">
-        <v>6299214</v>
+        <v>6301251</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J201" s="16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>1027</v>
+        <v>506</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="F202" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G202" s="16">
-        <v>347151</v>
+        <v>351208</v>
       </c>
       <c r="H202" s="16">
-        <v>6300776</v>
+        <v>6299214</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>593</v>
+        <v>438</v>
       </c>
       <c r="J202" s="16" t="s">
-        <v>594</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A203" s="19">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B203" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>59</v>
@@ -10148,595 +10158,630 @@
         <v>838</v>
       </c>
       <c r="G203" s="16">
-        <v>347877</v>
+        <v>347151</v>
       </c>
       <c r="H203" s="16">
-        <v>6301995</v>
+        <v>6300776</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>440</v>
+        <v>593</v>
       </c>
       <c r="J203" s="16" t="s">
-        <v>441</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>71</v>
+        <v>577</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F204" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G204" s="16">
-        <v>347712</v>
+        <v>347877</v>
       </c>
       <c r="H204" s="16">
-        <v>6297793</v>
+        <v>6301995</v>
       </c>
       <c r="I204" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J204" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A205" s="19">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B205" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>496</v>
+        <v>1028</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>578</v>
+        <v>71</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F205" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G205" s="16">
-        <v>351379</v>
+        <v>347712</v>
       </c>
       <c r="H205" s="16">
-        <v>6291902</v>
+        <v>6297793</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J205" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F206" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G206" s="16">
-        <v>349488</v>
+        <v>351379</v>
       </c>
       <c r="H206" s="16">
-        <v>6298212</v>
+        <v>6291902</v>
       </c>
       <c r="I206" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J206" s="16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B207" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>830</v>
+        <v>579</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F207" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G207" s="16">
-        <v>345621</v>
+        <v>349488</v>
       </c>
       <c r="H207" s="16">
-        <v>6288337</v>
+        <v>6298212</v>
       </c>
       <c r="I207" s="16" t="s">
-        <v>976</v>
+        <v>446</v>
       </c>
       <c r="J207" s="16" t="s">
-        <v>977</v>
+        <v>447</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>1008</v>
+        <v>484</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F208" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G208" s="16">
-        <v>335145</v>
+        <v>345621</v>
       </c>
       <c r="H208" s="16">
-        <v>6290560</v>
+        <v>6288337</v>
       </c>
       <c r="I208" s="16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J208" s="16" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>498</v>
+        <v>1008</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>580</v>
+        <v>831</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F209" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G209" s="16">
-        <v>353640</v>
+        <v>335145</v>
       </c>
       <c r="H209" s="16">
-        <v>6297303</v>
+        <v>6290560</v>
       </c>
       <c r="I209" s="16" t="s">
-        <v>448</v>
+        <v>978</v>
       </c>
       <c r="J209" s="16" t="s">
-        <v>449</v>
+        <v>979</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>1009</v>
+        <v>498</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>1039</v>
+        <v>580</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="F210" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G210" s="16">
-        <v>352102</v>
+        <v>353640</v>
       </c>
       <c r="H210" s="16">
-        <v>6288281</v>
+        <v>6297303</v>
       </c>
       <c r="I210" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J210" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>499</v>
+        <v>1009</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>581</v>
+        <v>1039</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F211" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G211" s="16">
-        <v>354462</v>
+        <v>352102</v>
       </c>
       <c r="H211" s="16">
-        <v>6301723</v>
+        <v>6288281</v>
       </c>
       <c r="I211" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J211" s="16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="G212" s="16">
-        <v>338028</v>
+        <v>354462</v>
       </c>
       <c r="H212" s="16">
-        <v>6265988</v>
+        <v>6301723</v>
       </c>
       <c r="I212" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J212" s="16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B213" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>1029</v>
+        <v>500</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="G213" s="16">
-        <v>349928</v>
+        <v>338028</v>
       </c>
       <c r="H213" s="16">
-        <v>6297028</v>
+        <v>6265988</v>
       </c>
       <c r="I213" s="16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>501</v>
+        <v>1029</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="G214" s="16">
-        <v>335839</v>
+        <v>349928</v>
       </c>
       <c r="H214" s="16">
-        <v>6287314</v>
+        <v>6297028</v>
       </c>
       <c r="I214" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J214" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>762</v>
+        <v>501</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>835</v>
+        <v>584</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="G215" s="16">
-        <v>337990</v>
+        <v>335839</v>
       </c>
       <c r="H215" s="16">
-        <v>6296179</v>
+        <v>6287314</v>
       </c>
       <c r="I215" s="16" t="s">
-        <v>986</v>
+        <v>458</v>
       </c>
       <c r="J215" s="16" t="s">
-        <v>987</v>
+        <v>459</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B216" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="G216" s="16">
-        <v>327785</v>
+        <v>337990</v>
       </c>
       <c r="H216" s="16">
-        <v>6279686</v>
+        <v>6296179</v>
       </c>
       <c r="I216" s="16" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J216" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B217" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>610</v>
+        <v>763</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>1040</v>
+        <v>836</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>617</v>
+        <v>176</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="G217" s="16">
-        <v>302289</v>
+        <v>327785</v>
       </c>
       <c r="H217" s="16">
-        <v>6302132</v>
+        <v>6279686</v>
       </c>
       <c r="I217" s="16" t="s">
-        <v>1080</v>
+        <v>988</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>1081</v>
+        <v>989</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B218" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>483</v>
+        <v>1040</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>18</v>
+        <v>617</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="G218" s="16">
-        <v>328693</v>
+        <v>302289</v>
       </c>
       <c r="H218" s="16">
-        <v>6297521</v>
+        <v>6302132</v>
       </c>
       <c r="I218" s="16" t="s">
-        <v>480</v>
+        <v>1080</v>
       </c>
       <c r="J218" s="16" t="s">
-        <v>481</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B219" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>596</v>
+        <v>482</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>1041</v>
+        <v>483</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F219" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G219" s="16">
-        <v>353342</v>
+        <v>328693</v>
       </c>
       <c r="H219" s="16">
-        <v>6300382</v>
+        <v>6297521</v>
       </c>
       <c r="I219" s="16" t="s">
-        <v>597</v>
+        <v>480</v>
       </c>
       <c r="J219" s="16" t="s">
-        <v>598</v>
+        <v>481</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B220" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>600</v>
+        <v>1041</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="F220" s="14" t="s">
         <v>838</v>
       </c>
       <c r="G220" s="16">
-        <v>340468</v>
+        <v>353342</v>
       </c>
       <c r="H220" s="16">
-        <v>6305886</v>
+        <v>6300382</v>
       </c>
       <c r="I220" s="16" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J220" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
+        <v>401</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="G221" s="16">
+        <v>340468</v>
+      </c>
+      <c r="H221" s="16">
+        <v>6305886</v>
+      </c>
+      <c r="I221" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="J221" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="12" x14ac:dyDescent="0.2">
+      <c r="A222" s="19">
         <v>403</v>
       </c>
-      <c r="B221" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="C221" s="12" t="s">
+      <c r="B222" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C222" s="12" t="s">
         <v>1037</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D222" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="E221" s="11" t="s">
+      <c r="E222" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="F221" s="14" t="s">
+      <c r="F222" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="G221" s="16">
+      <c r="G222" s="16">
         <v>294203</v>
       </c>
-      <c r="H221" s="16">
+      <c r="H222" s="16">
         <v>6270633</v>
       </c>
-      <c r="I221" s="16" t="s">
+      <c r="I222" s="16" t="s">
         <v>1082</v>
       </c>
-      <c r="J221" s="16" t="s">
+      <c r="J222" s="16" t="s">
         <v>1083</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A169">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -10745,7 +10790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J50"/>
+  <dimension ref="A2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10798,7 +10843,7 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -11632,481 +11677,449 @@
     </row>
     <row r="36" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>58</v>
+        <v>666</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G36" s="16">
-        <v>337679</v>
+        <v>336827</v>
       </c>
       <c r="H36" s="16">
-        <v>6307444</v>
+        <v>6303063</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>757</v>
+        <v>1012</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>666</v>
+        <v>166</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G37" s="16">
-        <v>336827</v>
+        <v>352546</v>
       </c>
       <c r="H37" s="16">
-        <v>6303063</v>
+        <v>6295259</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>166</v>
+        <v>820</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G38" s="16">
-        <v>352546</v>
+        <v>343263</v>
       </c>
       <c r="H38" s="16">
-        <v>6295259</v>
+        <v>6292267</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>820</v>
+        <v>667</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G39" s="16">
-        <v>343263</v>
+        <v>319654</v>
       </c>
       <c r="H39" s="16">
-        <v>6292267</v>
+        <v>6272241</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>667</v>
+        <v>9</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G40" s="16">
-        <v>319654</v>
+        <v>337753</v>
       </c>
       <c r="H40" s="16">
-        <v>6272241</v>
+        <v>6290173</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G41" s="16">
-        <v>337753</v>
+        <v>337224</v>
       </c>
       <c r="H41" s="16">
-        <v>6290173</v>
+        <v>6296370</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>762</v>
+        <v>1015</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>824</v>
+        <v>1064</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G42" s="16">
-        <v>337224</v>
+        <v>339466</v>
       </c>
       <c r="H42" s="16">
-        <v>6296370</v>
+        <v>6292177</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1064</v>
+        <v>827</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G43" s="16">
-        <v>339466</v>
+        <v>348901</v>
       </c>
       <c r="H43" s="16">
-        <v>6292177</v>
+        <v>6291745</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G44" s="16">
-        <v>348901</v>
+        <v>335441</v>
       </c>
       <c r="H44" s="16">
-        <v>6291745</v>
+        <v>6299300</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G45" s="16">
-        <v>335441</v>
+        <v>345291</v>
       </c>
       <c r="H45" s="16">
-        <v>6299300</v>
+        <v>6298161</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>1034</v>
+        <v>761</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="G46" s="16">
-        <v>345291</v>
+        <v>338007</v>
       </c>
       <c r="H46" s="16">
-        <v>6298161</v>
+        <v>6298909</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>761</v>
+        <v>655</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G47" s="16">
-        <v>338007</v>
+        <v>336169</v>
       </c>
       <c r="H47" s="16">
-        <v>6298909</v>
+        <v>6298354</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>603</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>655</v>
+        <v>1026</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>18</v>
+        <v>665</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G48" s="16">
-        <v>336169</v>
+        <v>343894</v>
       </c>
       <c r="H48" s="16">
-        <v>6298354</v>
+        <v>6304599</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
-        <v>395</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>1026</v>
+        <v>402</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>1035</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>665</v>
+        <v>837</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="G49" s="16">
-        <v>343894</v>
+        <v>342148</v>
       </c>
       <c r="H49" s="16">
-        <v>6304599</v>
+        <v>6283938</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
-        <v>402</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="G50" s="16">
-        <v>342148</v>
-      </c>
-      <c r="H50" s="16">
-        <v>6283938</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>990</v>
-      </c>
-      <c r="J50" s="16" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12114,11 +12127,11 @@
   <conditionalFormatting sqref="A11:A17">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A49">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A18:A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
